--- a/report/report1/report_1.xlsx
+++ b/report/report1/report_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -37,10 +37,7 @@
     <t>dist_in_window</t>
   </si>
   <si>
-    <t>count_red</t>
-  </si>
-  <si>
-    <t>count_blue</t>
+    <t>count_green</t>
   </si>
   <si>
     <t>red</t>
@@ -410,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,16 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -459,27 +453,24 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>4.123105625617661</v>
+        <v>10.04987562112089</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -488,27 +479,24 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="G3">
-        <v>3.16227766016838</v>
+        <v>9.055385138137417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -517,27 +505,24 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>2.23606797749979</v>
-      </c>
-      <c r="G4">
-        <v>2.23606797749979</v>
+        <v>8.062257748298549</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -546,27 +531,24 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>1.414213562373095</v>
-      </c>
-      <c r="G5">
-        <v>1.414213562373095</v>
+        <v>7.071067811865476</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -575,27 +557,24 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+        <v>6.082762530298219</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -604,27 +583,24 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>4.123105625617661</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+        <v>2.23606797749979</v>
+      </c>
+      <c r="G7">
+        <v>2.23606797749979</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -633,27 +609,24 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>5.099019513592784</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
+        <v>1.414213562373095</v>
+      </c>
+      <c r="G8">
+        <v>1.414213562373095</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -662,27 +635,24 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>6.082762530298219</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -691,27 +661,24 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>7.071067811865476</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>1.414213562373095</v>
+      </c>
+      <c r="G10">
+        <v>1.414213562373095</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -720,27 +687,24 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>8.062257748298549</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
+        <v>2.23606797749979</v>
+      </c>
+      <c r="G11">
+        <v>2.23606797749979</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -749,27 +713,24 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>10.44030650891055</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -778,27 +739,24 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>4.242640687119285</v>
+        <v>9.486832980505138</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -807,27 +765,24 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>3.605551275463989</v>
-      </c>
-      <c r="G14">
-        <v>3.605551275463989</v>
+        <v>8.54400374531753</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -836,27 +791,24 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>3.605551275463989</v>
-      </c>
-      <c r="G15">
-        <v>3.605551275463989</v>
+        <v>9.219544457292887</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -865,22 +817,19 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="G16">
-        <v>2.82842712474619</v>
+        <v>8.246211251235321</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -888,25 +837,48 @@
         <v>9</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="G17">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
+      <c r="H18">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
